--- a/menu_generator.xlsx
+++ b/menu_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LKH\Documents\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035E494-B756-40C0-BB2A-B48A635DA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F4A4ED-7FB3-4380-9EDA-6A94220DBB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6210" yWindow="75" windowWidth="16545" windowHeight="17415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <t>https://wingsmaker.github.io/Github/menu_style.css</t>
   </si>
   <si>
-    <t>https://www.gstatic.com/script/apps_script_1x_24dp.png</t>
-  </si>
-  <si>
-    <t>https://cdn.wallpapersafari.com/80/74/o9i8FL.jpg</t>
-  </si>
-  <si>
     <t>WingsMaker Github Menu</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t>https://github.com/WingsMaker/menu_generator</t>
+  </si>
+  <si>
+    <t>https://wingsmaker.github.io/Github/limkopi.jpg</t>
+  </si>
+  <si>
+    <t>https://wingsmaker.github.io/Github/wallpaper.jpg</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
       <c r="L2" s="3" t="str">
         <f>+$E$1 &amp; $C$6 &amp; $F$1 &amp; $C$3 &amp; G1 &amp; $H$1 &amp; $C$4 &amp; $I$1 &amp; $C$6 &amp; $J$1 &amp; CHAR(10) &amp; IF(D7="","",D7 &amp; CHAR(10)) &amp; IF(D8="","",D8 &amp; CHAR(10)) &amp; IF(D9="","",D9 &amp; CHAR(10)) &amp; IF(D10="","",D10 &amp; CHAR(10)) &amp; IF(D11="","",D11 &amp; CHAR(10)) &amp; IF(D12="","",D12 &amp; CHAR(10)) &amp; IF(D13="","",D13 &amp; CHAR(10)) &amp; IF(D14="","",D14 &amp; CHAR(10)) &amp; IF(D15="","",D15 &amp; CHAR(10)) &amp; IF(D16="","",D16 &amp; CHAR(10)) &amp; IF(D17="","",D17 &amp; CHAR(10)) &amp; IF(D18="","",D18 &amp; CHAR(10)) &amp; IF(D19="","",D19 &amp; CHAR(10)) &amp; IF(D20="","",D20 &amp; CHAR(10)) &amp; IF(D21="","",D21 &amp; CHAR(10)) &amp; IF(D22="","",D22 &amp; CHAR(10)) &amp; IF(D23="","",D23 &amp; CHAR(10)) &amp; IF(D24="","",D24 &amp; CHAR(10)) &amp; IF(D25="","",D25 &amp; CHAR(10)) &amp; IF(D26="","",D26 &amp; CHAR(10)) &amp; IF(D27="","",D27 &amp; CHAR(10)) &amp; IF(D28="","",D28 &amp; CHAR(10)) &amp; IF(D29="","",D29 &amp; CHAR(10)) &amp; IF(D30="","",D30 &amp; CHAR(10)) &amp; IF(D31="","",D31 &amp; CHAR(10)) &amp; IF(D32="","",D32 &amp; CHAR(10)) &amp; IF(D33="","",D33 &amp; CHAR(10)) &amp; IF(D34="","",D34 &amp; CHAR(10)) &amp; IF(D35="","",D35 &amp; CHAR(10)) &amp; IF(D36="","",D36 &amp; CHAR(10)) &amp; IF(D37="","",D37 &amp; CHAR(10))
 &amp; IF(D38="","",D38 &amp; CHAR(10)) &amp; IF(D39="","",D39 &amp; CHAR(10)) &amp; IF(D40="","",D40 &amp; CHAR(10)) &amp; IF(D41="","",D41 &amp; CHAR(10)) &amp; IF(D42="","",D42 &amp; CHAR(10)) &amp; IF(D43="","",D43 &amp; CHAR(10)) &amp; IF(D44="","",D44 &amp; CHAR(10)) &amp; IF(D45="","",D45 &amp; CHAR(10)) &amp; IF(D46="","",D46 &amp; CHAR(10)) &amp; IF(D47="","",D47 &amp; CHAR(10)) &amp; IF(D48="","",D48 &amp; CHAR(10)) &amp; IF(D49="","",D49 &amp; CHAR(10)) &amp; IF(D50="","",D50 &amp; CHAR(10)) &amp; IF(D51="","",D51 &amp; CHAR(10)) &amp; IF(D52="","",D52 &amp; CHAR(10)) &amp; IF(D53="","",D53 &amp; CHAR(10)) &amp; IF(D54="","",D54 &amp; CHAR(10)) &amp; IF(D55="","",D55 &amp; CHAR(10)) &amp; IF(D56="","",D56 &amp; CHAR(10)) &amp; IF(D57="","",D57 &amp; CHAR(10)) &amp; IF(D58="","",D58 &amp; CHAR(10)) &amp; IF(D59="","",D59 &amp; CHAR(10)) &amp; IF(D60="","",D60 &amp; CHAR(10)) &amp; $L$1  &amp; $H$1 &amp; $C$5 &amp; $K$1</f>
-        <v>&lt;html&gt;&lt;head&gt;&lt;title&gt;WingsMaker Github Menu&lt;/title&gt;&lt;link rel='stylesheet' href='https://wingsmaker.github.io/Github/menu_style.css'&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;&lt;img src='https://www.gstatic.com/script/apps_script_1x_24dp.png'/&gt;&lt;div id='title'&gt;&lt;h3&gt;WingsMaker Github Menu&lt;/h3&gt;&lt;/div&gt;&lt;br&gt;&lt;div id='menu'&gt;&lt;div class='navbar' id='myNavbar'&gt;
+        <v>&lt;html&gt;&lt;head&gt;&lt;title&gt;WingsMaker Github Menu&lt;/title&gt;&lt;link rel='stylesheet' href='https://wingsmaker.github.io/Github/menu_style.css'&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;&lt;img src='https://wingsmaker.github.io/Github/limkopi.jpg'/&gt;&lt;div id='title'&gt;&lt;h3&gt;WingsMaker Github Menu&lt;/h3&gt;&lt;/div&gt;&lt;br&gt;&lt;div id='menu'&gt;&lt;div class='navbar' id='myNavbar'&gt;
 &lt;div class='dropdown'&gt;&lt;button class='dropbtn'&gt;Apps&lt;/button&gt;&lt;div class='dropdown-content'&gt;
 &lt;a href='https://wingsmaker.github.io/Github/screen_record.html'&gt;Screen Recording&lt;/a&gt;
 &lt;a href='https://wingsmaker.github.io/Github/crypto.html'&gt;Text Encryption&lt;/a&gt;
@@ -941,7 +941,7 @@
 &lt;a href='https://github.com/WingsMaker/ResumeRanking'&gt;Resume Ranking&lt;/a&gt;
 &lt;a href='https://github.com/WingsMaker/telepot'&gt;Telepot for telegram&lt;/a&gt;
 &lt;a href='https://github.com/WingsMaker/text_encryptor'&gt;Text Encryptor&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;&lt;/div&gt;&lt;img src='https://cdn.wallpapersafari.com/80/74/o9i8FL.jpg'&gt;&lt;br&gt;&lt;/body&gt;&lt;/html&gt;</v>
+&lt;/div&gt;&lt;/div&gt;&lt;img src='https://wingsmaker.github.io/Github/wallpaper.jpg'&gt;&lt;br&gt;&lt;/body&gt;&lt;/html&gt;</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -969,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -993,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>+IF(A6="",IF(B6="",IF(C6="","",IF(C6="#",$L$1,$J$2 &amp; C6 &amp; $K$2)),$G$2 &amp; C6 &amp; $H$2 &amp; B6 &amp; $I$2 &amp; IF(B7="",$L$1,"")),$E$2 &amp; A6 &amp; $F$2)</f>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="5"/>
@@ -1015,10 +1015,10 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1028,10 +1028,10 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1041,10 +1041,10 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1054,10 +1054,10 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1067,10 +1067,10 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1080,10 +1080,10 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1093,10 +1093,10 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="8"/>
@@ -1117,10 +1117,10 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1130,10 +1130,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1143,10 +1143,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1167,10 +1167,10 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1180,10 +1180,10 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1193,10 +1193,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1206,10 +1206,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -1230,10 +1230,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1243,10 +1243,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -1267,10 +1267,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1280,10 +1280,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1293,10 +1293,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1306,10 +1306,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1319,10 +1319,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -1343,10 +1343,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1356,10 +1356,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1369,10 +1369,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1382,10 +1382,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1395,10 +1395,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1408,10 +1408,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1421,10 +1421,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1434,10 +1434,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1447,10 +1447,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1460,10 +1460,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1634,7 +1634,7 @@
     <row r="62" spans="1:5" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="str">
         <f>+TRIM(L2)</f>
-        <v>&lt;html&gt;&lt;head&gt;&lt;title&gt;WingsMaker Github Menu&lt;/title&gt;&lt;link rel='stylesheet' href='https://wingsmaker.github.io/Github/menu_style.css'&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;&lt;img src='https://www.gstatic.com/script/apps_script_1x_24dp.png'/&gt;&lt;div id='title'&gt;&lt;h3&gt;WingsMaker Github Menu&lt;/h3&gt;&lt;/div&gt;&lt;br&gt;&lt;div id='menu'&gt;&lt;div class='navbar' id='myNavbar'&gt;
+        <v>&lt;html&gt;&lt;head&gt;&lt;title&gt;WingsMaker Github Menu&lt;/title&gt;&lt;link rel='stylesheet' href='https://wingsmaker.github.io/Github/menu_style.css'&gt;&lt;/head&gt;&lt;body&gt;&lt;div&gt;&lt;img src='https://wingsmaker.github.io/Github/limkopi.jpg'/&gt;&lt;div id='title'&gt;&lt;h3&gt;WingsMaker Github Menu&lt;/h3&gt;&lt;/div&gt;&lt;br&gt;&lt;div id='menu'&gt;&lt;div class='navbar' id='myNavbar'&gt;
 &lt;div class='dropdown'&gt;&lt;button class='dropbtn'&gt;Apps&lt;/button&gt;&lt;div class='dropdown-content'&gt;
 &lt;a href='https://wingsmaker.github.io/Github/screen_record.html'&gt;Screen Recording&lt;/a&gt;
 &lt;a href='https://wingsmaker.github.io/Github/crypto.html'&gt;Text Encryption&lt;/a&gt;
@@ -1672,7 +1672,7 @@
 &lt;a href='https://github.com/WingsMaker/ResumeRanking'&gt;Resume Ranking&lt;/a&gt;
 &lt;a href='https://github.com/WingsMaker/telepot'&gt;Telepot for telegram&lt;/a&gt;
 &lt;a href='https://github.com/WingsMaker/text_encryptor'&gt;Text Encryptor&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;/div&gt;&lt;/div&gt;&lt;img src='https://cdn.wallpapersafari.com/80/74/o9i8FL.jpg'&gt;&lt;br&gt;&lt;/body&gt;&lt;/html&gt;</v>
+&lt;/div&gt;&lt;/div&gt;&lt;img src='https://wingsmaker.github.io/Github/wallpaper.jpg'&gt;&lt;br&gt;&lt;/body&gt;&lt;/html&gt;</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
